--- a/data_impute_project/removed_data/terrestrial_mammals/combination_3_ABCDF/AD/15/seed2/missing_data.xlsx
+++ b/data_impute_project/removed_data/terrestrial_mammals/combination_3_ABCDF/AD/15/seed2/missing_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,421 +436,546 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>A</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>D</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>F</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Hb 2</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>-21.2</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C2" t="n">
         <v>3.8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>-10.8</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="n">
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="n">
         <v>12.33</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="n">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Hb 3</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
         <v>4.54</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>-9.76</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>-6.85</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>13.95</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>S 24</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>-22.38</v>
       </c>
-      <c r="B4" t="n">
+      <c r="C4" t="n">
         <v>4.04</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>-11.3</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>-7.43</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>10.77</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>S 28</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>-23.4</v>
       </c>
-      <c r="B5" t="n">
+      <c r="C5" t="n">
         <v>4.35</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>-15.14</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="n">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
         <v>9.970000000000001</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Hb 107</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>-20.35</v>
       </c>
-      <c r="B6" t="n">
+      <c r="C6" t="n">
         <v>7.87</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>-12.89</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>-8.59</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>14.65</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Hb 66</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>-21.21</v>
       </c>
-      <c r="B7" t="n">
+      <c r="C7" t="n">
         <v>6.56</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>-10.59</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-9.31</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>14.77</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Hb 69</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>-21.48</v>
       </c>
-      <c r="B8" t="n">
+      <c r="C8" t="n">
         <v>7.52</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-11.02</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-7.09</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>12.94</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Hb 95</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>-19.24</v>
       </c>
-      <c r="B9" t="n">
+      <c r="C9" t="n">
         <v>10.18</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>-13.02</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>-9.9</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>12.31</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Hb 99</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>-18.76</v>
       </c>
-      <c r="B10" t="n">
+      <c r="C10" t="n">
         <v>9.35</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>-10.58</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>-8.93</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>16.23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hb 92</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>-22.23</v>
       </c>
-      <c r="B11" t="n">
+      <c r="C11" t="n">
         <v>6.01</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>-13.87</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>-8.01</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>13.91</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hb 40</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>-24</v>
       </c>
-      <c r="B12" t="n">
+      <c r="C12" t="n">
         <v>5.38</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>-15.79</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>-10.06</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>13.01</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hb 41</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>-21.95</v>
       </c>
-      <c r="B13" t="n">
+      <c r="C13" t="n">
         <v>4.42</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>-13.63</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>-8.92</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>12.56</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
-      <c r="B14" t="n">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>S 11</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="n">
         <v>8.33</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>-11.89</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>-7.97</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>12.97</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hb 57</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
         <v>-21.67</v>
       </c>
-      <c r="B15" t="n">
+      <c r="C15" t="n">
         <v>5.53</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>-10.67</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>-6.43</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>14.11</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>S 21</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
         <v>-20.57</v>
       </c>
-      <c r="B16" t="n">
+      <c r="C16" t="n">
         <v>8.949999999999999</v>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>-9.779999999999999</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>-4.8</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>13.16</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>S 22</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>-20.43</v>
       </c>
-      <c r="B17" t="n">
+      <c r="C17" t="n">
         <v>11.21</v>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>-12.35</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>-6.63</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>8.15</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>S 3</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>-23.05</v>
       </c>
-      <c r="B18" t="n">
+      <c r="C18" t="n">
         <v>5.81</v>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>-15.19</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>-8.869999999999999</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>12.54</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>S 4</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
         <v>-22.15</v>
       </c>
-      <c r="B19" t="n">
+      <c r="C19" t="n">
         <v>5.44</v>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>-14.32</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>-8.470000000000001</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>13.12</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>S 5</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
         <v>-22.69</v>
       </c>
-      <c r="B20" t="n">
+      <c r="C20" t="n">
         <v>5.51</v>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>-14.65</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>-8.140000000000001</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>13.73</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
-      <c r="B21" t="n">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Hb 74</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="n">
         <v>7.49</v>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>-12.06</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-8.890000000000001</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>13.76</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Hb 79</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
         <v>-20.95</v>
       </c>
-      <c r="B22" t="n">
+      <c r="C22" t="n">
         <v>4.26</v>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>-10.65</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-5.14</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>12.2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
-      <c r="B23" t="n">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Hb 32</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="n">
         <v>5.8</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>-10.59</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>-8.529999999999999</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>10.67</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>S 15</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
         <v>-20.62</v>
       </c>
-      <c r="B24" t="n">
+      <c r="C24" t="n">
         <v>9.130000000000001</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>-12.7</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>-9.24</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>12.16</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
-      <c r="B25" t="n">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>S 16</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="n">
         <v>5.09</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>-14.32</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>-7.71</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>15.03</v>
       </c>
     </row>
